--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H2">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I2">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J2">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5215465</v>
+        <v>1.2562095</v>
       </c>
       <c r="N2">
-        <v>1.043093</v>
+        <v>2.512419</v>
       </c>
       <c r="O2">
-        <v>0.3993854683363039</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P2">
-        <v>0.3071469942766215</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q2">
-        <v>0.06384589711725</v>
+        <v>0.08609054945399999</v>
       </c>
       <c r="R2">
-        <v>0.255383588469</v>
+        <v>0.344362197816</v>
       </c>
       <c r="S2">
-        <v>0.01927647542203625</v>
+        <v>0.04250224798600259</v>
       </c>
       <c r="T2">
-        <v>0.010535359368432</v>
+        <v>0.03055047778252876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H3">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I3">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J3">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,27 +629,27 @@
         <v>0.007026</v>
       </c>
       <c r="O3">
-        <v>0.001793436954986034</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P3">
-        <v>0.002068861340060323</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q3">
-        <v>0.000286699443</v>
+        <v>0.000160501944</v>
       </c>
       <c r="R3">
-        <v>0.001720196658</v>
+        <v>0.000963011664</v>
       </c>
       <c r="S3">
-        <v>8.65608444087131E-05</v>
+        <v>7.923858622563996E-05</v>
       </c>
       <c r="T3">
-        <v>7.096340874936678E-05</v>
+        <v>8.543465755514787E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1224165</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H4">
-        <v>0.244833</v>
+        <v>1.132793</v>
       </c>
       <c r="I4">
-        <v>0.0482653400043199</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J4">
-        <v>0.03430070801521076</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.781984</v>
+        <v>1.2562095</v>
       </c>
       <c r="N4">
-        <v>2.345952</v>
+        <v>2.512419</v>
       </c>
       <c r="O4">
-        <v>0.5988210947087101</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P4">
-        <v>0.6907841443833183</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q4">
-        <v>0.095727744336</v>
+        <v>0.4743417760445</v>
       </c>
       <c r="R4">
-        <v>0.5743664660159999</v>
+        <v>2.846050656267</v>
       </c>
       <c r="S4">
-        <v>0.02890230373787495</v>
+        <v>0.2341789188642183</v>
       </c>
       <c r="T4">
-        <v>0.02369438523802939</v>
+        <v>0.252490569213682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>1.132793</v>
       </c>
       <c r="I5">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J5">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5215465</v>
+        <v>0.002342</v>
       </c>
       <c r="N5">
-        <v>1.043093</v>
+        <v>0.007026</v>
       </c>
       <c r="O5">
-        <v>0.3993854683363039</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P5">
-        <v>0.3071469942766215</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q5">
-        <v>0.1969347414581667</v>
+        <v>0.0008843337353333332</v>
       </c>
       <c r="R5">
-        <v>1.181608448749</v>
+        <v>0.007959003617999999</v>
       </c>
       <c r="S5">
-        <v>0.05945891396109377</v>
+        <v>0.0004365888237431729</v>
       </c>
       <c r="T5">
-        <v>0.04874498676667031</v>
+        <v>0.0007060919135284876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3775976666666667</v>
+        <v>0.079682</v>
       </c>
       <c r="H6">
-        <v>1.132793</v>
+        <v>0.239046</v>
       </c>
       <c r="I6">
-        <v>0.1488760074540974</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J6">
-        <v>0.1587024703968609</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.002342</v>
+        <v>1.2562095</v>
       </c>
       <c r="N6">
-        <v>0.007026</v>
+        <v>2.512419</v>
       </c>
       <c r="O6">
-        <v>0.001793436954986034</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P6">
-        <v>0.002068861340060323</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q6">
-        <v>0.0008843337353333332</v>
+        <v>0.100097285379</v>
       </c>
       <c r="R6">
-        <v>0.007959003617999999</v>
+        <v>0.600583712274</v>
       </c>
       <c r="S6">
-        <v>0.0002669997334789546</v>
+        <v>0.04941726673700839</v>
       </c>
       <c r="T6">
-        <v>0.0003283334055761333</v>
+        <v>0.05328145619566312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3775976666666667</v>
+        <v>0.079682</v>
       </c>
       <c r="H7">
-        <v>1.132793</v>
+        <v>0.239046</v>
       </c>
       <c r="I7">
-        <v>0.1488760074540974</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J7">
-        <v>0.1587024703968609</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.781984</v>
+        <v>0.002342</v>
       </c>
       <c r="N7">
-        <v>2.345952</v>
+        <v>0.007026</v>
       </c>
       <c r="O7">
-        <v>0.5988210947087101</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P7">
-        <v>0.6907841443833183</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q7">
-        <v>0.2952753337706667</v>
+        <v>0.000186615244</v>
       </c>
       <c r="R7">
-        <v>2.657478003936</v>
+        <v>0.001679537196</v>
       </c>
       <c r="S7">
-        <v>0.08915009375952472</v>
+        <v>9.213052337056329E-05</v>
       </c>
       <c r="T7">
-        <v>0.1096291502246144</v>
+        <v>0.0001490020220475681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7251326666666668</v>
+        <v>0.2857985</v>
       </c>
       <c r="H8">
-        <v>2.175398</v>
+        <v>0.571597</v>
       </c>
       <c r="I8">
-        <v>0.2858991615093214</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J8">
-        <v>0.3047697476029517</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5215465</v>
+        <v>1.2562095</v>
       </c>
       <c r="N8">
-        <v>1.043093</v>
+        <v>2.512419</v>
       </c>
       <c r="O8">
-        <v>0.3993854683363039</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P8">
-        <v>0.3071469942766215</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q8">
-        <v>0.3781904043356668</v>
+        <v>0.35902279078575</v>
       </c>
       <c r="R8">
-        <v>2.269142426014001</v>
+        <v>1.436091163143</v>
       </c>
       <c r="S8">
-        <v>0.1141839705163569</v>
+        <v>0.1772468149335721</v>
       </c>
       <c r="T8">
-        <v>0.09360911192269115</v>
+        <v>0.1274044347827299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7251326666666668</v>
+        <v>0.2857985</v>
       </c>
       <c r="H9">
-        <v>2.175398</v>
+        <v>0.571597</v>
       </c>
       <c r="I9">
-        <v>0.2858991615093214</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J9">
-        <v>0.3047697476029517</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,27 +1001,27 @@
         <v>0.007026</v>
       </c>
       <c r="O9">
-        <v>0.001793436954986034</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P9">
-        <v>0.002068861340060323</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q9">
-        <v>0.001698260705333333</v>
+        <v>0.000669340087</v>
       </c>
       <c r="R9">
-        <v>0.015284346348</v>
+        <v>0.004016040522</v>
       </c>
       <c r="S9">
-        <v>0.0005127421216503376</v>
+        <v>0.000330448098485504</v>
       </c>
       <c r="T9">
-        <v>0.0006305263484356889</v>
+        <v>0.0003562875295814355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7251326666666668</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H10">
-        <v>2.175398</v>
+        <v>1.373989</v>
       </c>
       <c r="I10">
-        <v>0.2858991615093214</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J10">
-        <v>0.3047697476029517</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.781984</v>
+        <v>1.2562095</v>
       </c>
       <c r="N10">
-        <v>2.345952</v>
+        <v>2.512419</v>
       </c>
       <c r="O10">
-        <v>0.5988210947087101</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P10">
-        <v>0.6907841443833183</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q10">
-        <v>0.5670421432106667</v>
+        <v>0.5753393448984999</v>
       </c>
       <c r="R10">
-        <v>5.103379288896001</v>
+        <v>3.452036069391</v>
       </c>
       <c r="S10">
-        <v>0.1712024488713142</v>
+        <v>0.2840406486898563</v>
       </c>
       <c r="T10">
-        <v>0.2105301093318248</v>
+        <v>0.3062512433457283</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.348712</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H11">
-        <v>0.697424</v>
+        <v>1.373989</v>
       </c>
       <c r="I11">
-        <v>0.1374872116388428</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J11">
-        <v>0.09770797640350913</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.5215465</v>
+        <v>0.002342</v>
       </c>
       <c r="N11">
-        <v>1.043093</v>
+        <v>0.007026</v>
       </c>
       <c r="O11">
-        <v>0.3993854683363039</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P11">
-        <v>0.3071469942766215</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q11">
-        <v>0.181869523108</v>
+        <v>0.001072627412666667</v>
       </c>
       <c r="R11">
-        <v>0.7274780924320001</v>
+        <v>0.009653646714</v>
       </c>
       <c r="S11">
-        <v>0.05491039441063178</v>
+        <v>0.0005295479768554876</v>
       </c>
       <c r="T11">
-        <v>0.03001071126918888</v>
+        <v>0.0008564340724007768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3398253333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.019476</v>
+      </c>
+      <c r="I12">
+        <v>0.2111461487806618</v>
+      </c>
+      <c r="J12">
+        <v>0.2278685684845546</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.348712</v>
-      </c>
-      <c r="H12">
-        <v>0.697424</v>
-      </c>
-      <c r="I12">
-        <v>0.1374872116388428</v>
-      </c>
-      <c r="J12">
-        <v>0.09770797640350913</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.002342</v>
+        <v>1.2562095</v>
       </c>
       <c r="N12">
-        <v>0.007026</v>
+        <v>2.512419</v>
       </c>
       <c r="O12">
-        <v>0.001793436954986034</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P12">
-        <v>0.002068861340060323</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q12">
-        <v>0.0008166835040000001</v>
+        <v>0.426891812074</v>
       </c>
       <c r="R12">
-        <v>0.004900101024</v>
+        <v>2.561350872444</v>
       </c>
       <c r="S12">
-        <v>0.0002465746461910867</v>
+        <v>0.2107532333692191</v>
       </c>
       <c r="T12">
-        <v>0.0002021442549967463</v>
+        <v>0.2272331092615223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.348712</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H13">
-        <v>0.697424</v>
+        <v>1.019476</v>
       </c>
       <c r="I13">
-        <v>0.1374872116388428</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J13">
-        <v>0.09770797640350913</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.781984</v>
+        <v>0.002342</v>
       </c>
       <c r="N13">
-        <v>2.345952</v>
+        <v>0.007026</v>
       </c>
       <c r="O13">
-        <v>0.5988210947087101</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P13">
-        <v>0.6907841443833183</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q13">
-        <v>0.272687204608</v>
+        <v>0.0007958709306666667</v>
       </c>
       <c r="R13">
-        <v>1.636123227648</v>
+        <v>0.007162838376000001</v>
       </c>
       <c r="S13">
-        <v>0.08233024258201999</v>
+        <v>0.0003929154114426863</v>
       </c>
       <c r="T13">
-        <v>0.06749512087932351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.218412</v>
-      </c>
-      <c r="H14">
-        <v>0.655236</v>
-      </c>
-      <c r="I14">
-        <v>0.08611363207593355</v>
-      </c>
-      <c r="J14">
-        <v>0.09179750571636437</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.5215465</v>
-      </c>
-      <c r="N14">
-        <v>1.043093</v>
-      </c>
-      <c r="O14">
-        <v>0.3993854683363039</v>
-      </c>
-      <c r="P14">
-        <v>0.3071469942766215</v>
-      </c>
-      <c r="Q14">
-        <v>0.113912014158</v>
-      </c>
-      <c r="R14">
-        <v>0.683472084948</v>
-      </c>
-      <c r="S14">
-        <v>0.03439253327678688</v>
-      </c>
-      <c r="T14">
-        <v>0.02819532796287229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.218412</v>
-      </c>
-      <c r="H15">
-        <v>0.655236</v>
-      </c>
-      <c r="I15">
-        <v>0.08611363207593355</v>
-      </c>
-      <c r="J15">
-        <v>0.09179750571636437</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.002342</v>
-      </c>
-      <c r="N15">
-        <v>0.007026</v>
-      </c>
-      <c r="O15">
-        <v>0.001793436954986034</v>
-      </c>
-      <c r="P15">
-        <v>0.002068861340060323</v>
-      </c>
-      <c r="Q15">
-        <v>0.0005115209040000001</v>
-      </c>
-      <c r="R15">
-        <v>0.004603688136</v>
-      </c>
-      <c r="S15">
-        <v>0.0001544393700930499</v>
-      </c>
-      <c r="T15">
-        <v>0.0001899163106905527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.218412</v>
-      </c>
-      <c r="H16">
-        <v>0.655236</v>
-      </c>
-      <c r="I16">
-        <v>0.08611363207593355</v>
-      </c>
-      <c r="J16">
-        <v>0.09179750571636437</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.781984</v>
-      </c>
-      <c r="N16">
-        <v>2.345952</v>
-      </c>
-      <c r="O16">
-        <v>0.5988210947087101</v>
-      </c>
-      <c r="P16">
-        <v>0.6907841443833183</v>
-      </c>
-      <c r="Q16">
-        <v>0.170794689408</v>
-      </c>
-      <c r="R16">
-        <v>1.537152204672</v>
-      </c>
-      <c r="S16">
-        <v>0.05156665942905362</v>
-      </c>
-      <c r="T16">
-        <v>0.06341226144280153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.7440523333333333</v>
-      </c>
-      <c r="H17">
-        <v>2.232157</v>
-      </c>
-      <c r="I17">
-        <v>0.293358647317485</v>
-      </c>
-      <c r="J17">
-        <v>0.3127215918651031</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.5215465</v>
-      </c>
-      <c r="N17">
-        <v>1.043093</v>
-      </c>
-      <c r="O17">
-        <v>0.3993854683363039</v>
-      </c>
-      <c r="P17">
-        <v>0.3071469942766215</v>
-      </c>
-      <c r="Q17">
-        <v>0.3880578902668333</v>
-      </c>
-      <c r="R17">
-        <v>2.328347341601</v>
-      </c>
-      <c r="S17">
-        <v>0.1171631807493983</v>
-      </c>
-      <c r="T17">
-        <v>0.09605149698676678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.7440523333333333</v>
-      </c>
-      <c r="H18">
-        <v>2.232157</v>
-      </c>
-      <c r="I18">
-        <v>0.293358647317485</v>
-      </c>
-      <c r="J18">
-        <v>0.3127215918651031</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.002342</v>
-      </c>
-      <c r="N18">
-        <v>0.007026</v>
-      </c>
-      <c r="O18">
-        <v>0.001793436954986034</v>
-      </c>
-      <c r="P18">
-        <v>0.002068861340060323</v>
-      </c>
-      <c r="Q18">
-        <v>0.001742570564666667</v>
-      </c>
-      <c r="R18">
-        <v>0.015683135082</v>
-      </c>
-      <c r="S18">
-        <v>0.0005261202391638921</v>
-      </c>
-      <c r="T18">
-        <v>0.0006469776116118346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.7440523333333333</v>
-      </c>
-      <c r="H19">
-        <v>2.232157</v>
-      </c>
-      <c r="I19">
-        <v>0.293358647317485</v>
-      </c>
-      <c r="J19">
-        <v>0.3127215918651031</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.781984</v>
-      </c>
-      <c r="N19">
-        <v>2.345952</v>
-      </c>
-      <c r="O19">
-        <v>0.5988210947087101</v>
-      </c>
-      <c r="P19">
-        <v>0.6907841443833183</v>
-      </c>
-      <c r="Q19">
-        <v>0.5818370198293333</v>
-      </c>
-      <c r="R19">
-        <v>5.236533178464</v>
-      </c>
-      <c r="S19">
-        <v>0.1756693463289228</v>
-      </c>
-      <c r="T19">
-        <v>0.2160231172667245</v>
+        <v>0.0006354592230322473</v>
       </c>
     </row>
   </sheetData>
